--- a/medicine/Pharmacie/Abciximab/Abciximab.xlsx
+++ b/medicine/Pharmacie/Abciximab/Abciximab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abciximab est une protéine constituée par le fragment Fab, (c'est-à-dire la partie d'un anticorps qui reconnaît son épitope) de l'anticorps monoclonal chimérique humain-murin 7E3 d'où son précédent nom  de c7E3 Fab) dirigé contre le  récepteur des glycoprotéines IIb/IIIa des thrombocytes. Il est utilisé en tant qu'antiagrégant plaquettaire. Il empêche la fixation du fibrinogène.
@@ -512,9 +524,11 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il inhibe l'agrégation plaquettaire d'une manière dose-dépendante et rapidement réversible. Il aurait également une activité anti-inflammatoire[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il inhibe l'agrégation plaquettaire d'une manière dose-dépendante et rapidement réversible. Il aurait également une activité anti-inflammatoire
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est indiqué dans les infarctus du myocarde en cours de constitution, avant un geste de revascularisation par angioplastie coronaire. Il réduit ainsi le risque d'accident cardiaque à moyen terme[3] mais il semble que ce résultat soit essentiellement corrélé à la réussite de l'angioplastie[4]. 
-Il s'administre en perfusion intraveineuse mais peut-être également injecté par voie intra-coronaire au cours d'une coronarographie, pour en augmenter l'efficacité biologique[5], mais sans supériorité démontré sur la préservation du muscle cardiaque dans les suites d'un infarctus du myocarde par rapport à la voie intra-veineuse[6].
-L'indication de son utilisation par voie intraveineuse est qualifiée de « raisonnable » (niveau IIa) dans les recommandations américaines de 2013 sur la prise en charge de l'infarctus du myocarde à la phase aiguë[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est indiqué dans les infarctus du myocarde en cours de constitution, avant un geste de revascularisation par angioplastie coronaire. Il réduit ainsi le risque d'accident cardiaque à moyen terme mais il semble que ce résultat soit essentiellement corrélé à la réussite de l'angioplastie. 
+Il s'administre en perfusion intraveineuse mais peut-être également injecté par voie intra-coronaire au cours d'une coronarographie, pour en augmenter l'efficacité biologique, mais sans supériorité démontré sur la préservation du muscle cardiaque dans les suites d'un infarctus du myocarde par rapport à la voie intra-veineuse.
+L'indication de son utilisation par voie intraveineuse est qualifiée de « raisonnable » (niveau IIa) dans les recommandations américaines de 2013 sur la prise en charge de l'infarctus du myocarde à la phase aiguë.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Molécules de la même classe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les autres inhibiteurs des récepteurs des glycoprotéines IIb/IIIa sont l'eptifibatide et le tirofiban.
 </t>
